--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>115677.608300379</v>
+        <v>113239.1352006328</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>223.0973954614431</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,16 +665,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>126.7498226612772</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -826,16 +826,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>3.444282854101673</v>
       </c>
       <c r="G4" t="n">
-        <v>52.23490948285971</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>71.31340860082213</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -905,7 +905,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>350.927469201455</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>281.9408634908482</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>70.01987889555286</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1069,7 +1069,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1111,13 +1111,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>32.93805507567788</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,13 +1133,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>163.0860508096754</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>19.84006383513685</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,25 +1291,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>134.8707758646393</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>61.17118126752713</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>166.0016338997254</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>4.019807611472247</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,10 +1619,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>100.0416311957212</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0.2811815126418742</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>26.1362719570585</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>54.32649042089668</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2561,7 +2561,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2719,13 +2719,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>71.79687029691033</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2956,16 +2956,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>26.05480806223585</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,16 +4138,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>224.1675592379414</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2005.586939522201</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="C2" t="n">
-        <v>1636.624422581789</v>
+        <v>552.807938939214</v>
       </c>
       <c r="D2" t="n">
-        <v>1278.358723975039</v>
+        <v>194.5422403324635</v>
       </c>
       <c r="E2" t="n">
-        <v>892.5704713767946</v>
+        <v>194.5422403324635</v>
       </c>
       <c r="F2" t="n">
-        <v>481.5845665871869</v>
+        <v>194.5422403324635</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218343</v>
+        <v>194.5422403324635</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2994.542934265601</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2994.542934265601</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2621.077176004521</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2230.937844028709</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>362.8175152271517</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="C4" t="n">
-        <v>362.8175152271517</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="D4" t="n">
-        <v>362.8175152271517</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="E4" t="n">
-        <v>362.8175152271517</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="F4" t="n">
-        <v>362.8175152271517</v>
+        <v>138.5458624936199</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>138.5458624936199</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>138.5458624936199</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4531,7 +4531,7 @@
         <v>362.8175152271517</v>
       </c>
       <c r="Y4" t="n">
-        <v>362.8175152271517</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1590.807527238424</v>
+        <v>1243.280836875046</v>
       </c>
       <c r="C5" t="n">
-        <v>1221.845010298012</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="D5" t="n">
-        <v>1221.845010298012</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E5" t="n">
-        <v>836.0567576997678</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F5" t="n">
         <v>481.5845665871869</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883008</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V5" t="n">
-        <v>2741.012457539437</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W5" t="n">
-        <v>2741.012457539437</v>
+        <v>2393.48576717606</v>
       </c>
       <c r="X5" t="n">
-        <v>2367.546699278357</v>
+        <v>2020.02000891498</v>
       </c>
       <c r="Y5" t="n">
-        <v>1977.407367302545</v>
+        <v>1629.880676939168</v>
       </c>
     </row>
     <row r="6">
@@ -4620,31 +4620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>845.4915543310558</v>
+        <v>647.3667606649364</v>
       </c>
       <c r="C7" t="n">
-        <v>845.4915543310558</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="D7" t="n">
-        <v>695.37491491872</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V7" t="n">
-        <v>1134.908724368016</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W7" t="n">
-        <v>845.4915543310558</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X7" t="n">
-        <v>845.4915543310558</v>
+        <v>647.3667606649364</v>
       </c>
       <c r="Y7" t="n">
-        <v>845.4915543310558</v>
+        <v>647.3667606649364</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1661.795585684488</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="C8" t="n">
-        <v>1292.833068744076</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D8" t="n">
-        <v>934.5673701373257</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3050.581768480028</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>3050.581768480028</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>3050.581768480028</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>2697.813113209913</v>
       </c>
       <c r="X8" t="n">
-        <v>2051.9349176603</v>
+        <v>2324.347354948834</v>
       </c>
       <c r="Y8" t="n">
-        <v>1661.795585684488</v>
+        <v>1934.208022973022</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>775.9977502341333</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="C10" t="n">
-        <v>607.0615673062264</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D10" t="n">
-        <v>456.9449278938906</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1479.464368481568</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1224.779880275681</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1224.779880275681</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>996.7903293776634</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="Y10" t="n">
-        <v>775.9977502341333</v>
+        <v>529.0179941377679</v>
       </c>
     </row>
     <row r="11">
@@ -5021,22 +5021,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5118,13 +5118,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M12" t="n">
         <v>716.6687843969308</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>931.4710609784063</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780504994</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2442.902671851501</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2260.047837506405</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>2040.446372529346</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1751.371145873544</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956954</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.149479058937</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y13" t="n">
-        <v>1099.149479058937</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="14">
@@ -5267,31 +5267,31 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1052.829365488567</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>883.8931825606599</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>733.7765431483241</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E16" t="n">
-        <v>585.863449565931</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2227.361618603201</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1972.677130397314</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1683.259960360354</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1455.270409462336</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1234.477830318806</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5504,28 +5504,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5595,25 +5595,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>550.637687073287</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.679061850319</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2263.824227505223</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.222762528164</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2044.222762528164</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1789.538274322277</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5744,25 +5744,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2420.562808876161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5975,34 +5975,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,25 +6063,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
         <v>2283.159972732779</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E25" t="n">
         <v>240.7066105458822</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6215,61 +6215,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>559.0424953278208</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>408.925855915485</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2191.586158026164</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1902.510931370362</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6440,61 +6440,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2341.919755080347</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6686,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6780,25 +6780,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>261.8464821474262</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>261.8464821474262</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>261.8464821474262</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6932,22 +6932,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -6956,28 +6956,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7151,13 +7151,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7169,25 +7169,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694708</v>
@@ -7196,25 +7196,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7312,22 +7312,22 @@
         <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7503,13 +7503,13 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2530.951795518647</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>576.8388927589092</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1207.269487630696</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>979.2799367326791</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>758.4873575891489</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.882938249764265e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>159.6364462020375</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,19 +22553,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,16 +22598,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>176.7776067850863</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22711,7 +22711,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22720,10 +22720,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>25.03901180901595</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13.83034628221191</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>62.35543909864944</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23507,10 +23507,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
         <v>5.115907697472721e-13</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>45.37941682721004</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,10 +23902,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.09406519747981</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856724</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>191.2691783702298</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>125.5054897610406</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24607,16 +24607,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462282</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>145.6085800303779</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>43.26526345294947</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>139.469330230033</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459265</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856552</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459264</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>62.35543909864955</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26314,7 +26314,7 @@
         <v>317255.8761406863</v>
       </c>
       <c r="C2" t="n">
-        <v>348942.7521923205</v>
+        <v>348942.7521923204</v>
       </c>
       <c r="D2" t="n">
         <v>348942.7521923204</v>
@@ -26323,34 +26323,34 @@
         <v>343037.3048682528</v>
       </c>
       <c r="F2" t="n">
+        <v>343037.3048682528</v>
+      </c>
+      <c r="G2" t="n">
+        <v>343037.3048682529</v>
+      </c>
+      <c r="H2" t="n">
         <v>343037.3048682527</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>343037.304868253</v>
+      </c>
+      <c r="J2" t="n">
+        <v>343037.304868253</v>
+      </c>
+      <c r="K2" t="n">
+        <v>343037.3048682528</v>
+      </c>
+      <c r="L2" t="n">
+        <v>343037.3048682529</v>
+      </c>
+      <c r="M2" t="n">
+        <v>343037.304868253</v>
+      </c>
+      <c r="N2" t="n">
+        <v>343037.3048682529</v>
+      </c>
+      <c r="O2" t="n">
         <v>343037.3048682527</v>
-      </c>
-      <c r="H2" t="n">
-        <v>343037.3048682526</v>
-      </c>
-      <c r="I2" t="n">
-        <v>343037.3048682527</v>
-      </c>
-      <c r="J2" t="n">
-        <v>343037.3048682526</v>
-      </c>
-      <c r="K2" t="n">
-        <v>343037.3048682527</v>
-      </c>
-      <c r="L2" t="n">
-        <v>343037.3048682526</v>
-      </c>
-      <c r="M2" t="n">
-        <v>343037.3048682528</v>
-      </c>
-      <c r="N2" t="n">
-        <v>343037.3048682528</v>
-      </c>
-      <c r="O2" t="n">
-        <v>343037.3048682528</v>
       </c>
       <c r="P2" t="n">
         <v>343037.3048682528</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,10 +26418,10 @@
         <v>49019.07124050427</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316939</v>
+        <v>91573.95495316945</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316939</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
@@ -26442,19 +26442,19 @@
         <v>12386.92018181813</v>
       </c>
       <c r="K4" t="n">
-        <v>12386.92018181818</v>
+        <v>12386.92018181808</v>
       </c>
       <c r="L4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="M4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181809</v>
       </c>
       <c r="N4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181809</v>
       </c>
       <c r="O4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181815</v>
       </c>
       <c r="P4" t="n">
         <v>12386.92018181813</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1168441.881388804</v>
+        <v>-1168628.274777343</v>
       </c>
       <c r="C6" t="n">
-        <v>149434.8566777578</v>
+        <v>149434.8566777577</v>
       </c>
       <c r="D6" t="n">
         <v>149434.8566777577</v>
       </c>
       <c r="E6" t="n">
-        <v>-95884.60694482752</v>
+        <v>-95919.34487026327</v>
       </c>
       <c r="F6" t="n">
-        <v>229527.8548625275</v>
+        <v>229493.1169370918</v>
       </c>
       <c r="G6" t="n">
-        <v>229527.8548625275</v>
+        <v>229493.1169370919</v>
       </c>
       <c r="H6" t="n">
-        <v>229527.8548625273</v>
+        <v>229493.1169370917</v>
       </c>
       <c r="I6" t="n">
-        <v>229527.8548625275</v>
+        <v>229493.116937092</v>
       </c>
       <c r="J6" t="n">
-        <v>11996.65246524991</v>
+        <v>11961.91453981461</v>
       </c>
       <c r="K6" t="n">
-        <v>229527.8548625274</v>
+        <v>229493.1169370917</v>
       </c>
       <c r="L6" t="n">
-        <v>229527.8548625273</v>
+        <v>229493.1169370919</v>
       </c>
       <c r="M6" t="n">
-        <v>144472.8269270158</v>
+        <v>144438.0890015802</v>
       </c>
       <c r="N6" t="n">
-        <v>229527.8548625274</v>
+        <v>229493.116937092</v>
       </c>
       <c r="O6" t="n">
-        <v>229527.8548625277</v>
+        <v>229493.1169370917</v>
       </c>
       <c r="P6" t="n">
-        <v>229527.8548625276</v>
+        <v>229493.1169370918</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26814,16 +26814,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>167.8579417260432</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>27.14036335453386</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27543,13 +27543,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>141.9767651688296</v>
       </c>
       <c r="G4" t="n">
-        <v>113.7908987761685</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27625,7 +27625,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>55.9485765402564</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>67.30010522656482</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>76.41408375101631</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,7 +27789,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27831,13 +27831,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>192.7716003133593</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,13 +27853,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>40.8319193299447</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>349.8910368433322</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,25 +28011,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,25 +28059,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>151.3410623409736</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>164.53847412151</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -28977,7 +28977,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29281,7 +29281,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -29448,7 +29448,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>-4.336205468765305e-12</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-3.973560780210631e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>-2.177308744209098e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -31838,16 +31838,16 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>430.400187030115</v>
       </c>
       <c r="M12" t="n">
-        <v>620.1193660647499</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32093,13 +32093,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>290.1088399635148</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32315,13 +32315,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>518.439455159358</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32330,13 +32330,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>399.4395445221152</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32710,7 +32710,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
         <v>867.846407116256</v>
@@ -32783,13 +32783,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
@@ -32798,13 +32798,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>550.5977692975241</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
@@ -33023,7 +33023,7 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33032,22 +33032,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>454.5879800486398</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>316.2462973459351</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>454.5879800486393</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>422.1299181110988</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33968,7 +33968,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33980,22 +33980,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>303.4297552732306</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34129,34 +34129,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34211,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>168.0123247135882</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>536.8001439125369</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35486,16 +35486,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>291.8458072502408</v>
       </c>
       <c r="M12" t="n">
-        <v>477.9853321427316</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35741,13 +35741,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35963,13 +35963,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>376.3054212373396</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35978,13 +35978,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,7 +36358,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36446,13 +36446,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>416.6233618831939</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36680,22 +36680,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>176.2645232599136</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>311.9917356041949</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>283.5755383312246</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37628,22 +37628,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>160.8335108287862</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>394.6661099905186</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
